--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,19 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32EC4A10-6F0B-49B4-A0BD-F0D56DFCC838}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4278393B-B898-4CF8-94DA-55C2CD5D463B}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="記入例" sheetId="3" r:id="rId2"/>
-    <sheet name="ユーザー" sheetId="8" r:id="rId3"/>
+    <sheet name="ユーザー" sheetId="8" r:id="rId2"/>
+    <sheet name="チャットルーム" sheetId="6" r:id="rId3"/>
     <sheet name="チャットルームユーザー" sheetId="7" r:id="rId4"/>
-    <sheet name="チャットルーム" sheetId="6" r:id="rId5"/>
-    <sheet name="投稿" sheetId="9" r:id="rId6"/>
-    <sheet name="タスク" sheetId="5" r:id="rId7"/>
-    <sheet name="テンプレート" sheetId="2" r:id="rId8"/>
+    <sheet name="投稿" sheetId="9" r:id="rId5"/>
+    <sheet name="タスク" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="107">
   <si>
     <t>改定履歴</t>
   </si>
@@ -77,37 +75,22 @@
     <t>タスク</t>
   </si>
   <si>
-    <t>table_names</t>
-    <phoneticPr fontId="6"/>
+    <t>日時の記録に関してデフォルトに現在の日時を設定</t>
+  </si>
+  <si>
+    <t>日時の記録に関してデフォルトに現在の日時を設定、ファイル送信のデフォルトを送信許可に変更</t>
+  </si>
+  <si>
+    <t>users</t>
   </si>
   <si>
     <t>役割</t>
   </si>
   <si>
-    <t>テーブルに関する情報を保持するテーブル</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <t>ユーザーに関する情報を保持するテーブル</t>
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>備考があれば記入する</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>#</t>
@@ -234,392 +217,6 @@
     <t>その他設定</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>テーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uto_increment</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>テーブル名</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ame</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>archar</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>概要</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>escription</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>削除フラグ</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s_deleted</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>inyint</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>削除済み</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作成日時</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>reated_at</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>atetime</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作成ユーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>reate_user_id</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>更新日時</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pdated_at</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>更新ユーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pdate_user_id</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>ユーザーに関する情報を保持するテーブル</t>
-  </si>
-  <si>
     <t>ユーザーID</t>
   </si>
   <si>
@@ -689,6 +286,37 @@
     <t>tinyint</t>
   </si>
   <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>削除済み</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -698,44 +326,22 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>current_timestamp</t>
+  </si>
+  <si>
     <t>更新日時</t>
   </si>
   <si>
     <t>updated_at</t>
   </si>
   <si>
-    <t>chat_room_users</t>
-  </si>
-  <si>
-    <t>チャットルームユーザーに関する情報を保持するテーブル</t>
-  </si>
-  <si>
-    <t>チャットルームユーザーID</t>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>チャットルームID</t>
-  </si>
-  <si>
-    <t>chat_room_id</t>
-  </si>
-  <si>
-    <t>参加日時</t>
-  </si>
-  <si>
     <t>chat_rooms</t>
   </si>
   <si>
     <t>チャットルームに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャットルームID</t>
   </si>
   <si>
     <r>
@@ -749,6 +355,10 @@
       </rPr>
       <t>nt</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -833,10 +443,31 @@
     <t>created_user_id</t>
   </si>
   <si>
+    <t>FK</t>
+  </si>
+  <si>
     <t>更新者ID</t>
   </si>
   <si>
     <t>updated_user_id</t>
+  </si>
+  <si>
+    <t>chat_room_users</t>
+  </si>
+  <si>
+    <t>チャットルームユーザーに関する情報を保持するテーブル</t>
+  </si>
+  <si>
+    <t>チャットルームユーザーID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>chat_room_id</t>
+  </si>
+  <si>
+    <t>参加日時</t>
   </si>
   <si>
     <t>posts</t>
@@ -903,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -938,19 +569,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1045,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1063,11 +681,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,37 +700,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1336,7 +947,7 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1350,9 +961,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1417,7 +1028,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1447,7 +1058,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>44366</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1483,7 +1094,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>44366</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1519,7 +1130,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>44366</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1555,7 +1166,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>44366</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1591,7 +1202,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>44366</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1627,10 +1238,18 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="27"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="26">
+        <v>44371</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1655,10 +1274,18 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="26">
+        <v>44371</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1683,10 +1310,18 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="27"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="26">
+        <v>44371</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1711,10 +1346,18 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="26">
+        <v>44371</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1739,10 +1382,18 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="26">
+        <v>44371</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -30250,206 +29901,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F766DD-5182-4AED-9B74-2EDEA2F82B07}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="23"/>
+    <col min="2" max="2" width="3.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75">
+      <c r="A5" s="29"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18" t="s">
-        <v>31</v>
+      <c r="G5" s="19"/>
+      <c r="H5" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="30"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="29"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30461,132 +30102,198 @@
         <v>41</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="29"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="29"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F10" s="16">
-        <v>11</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="30"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="29"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="F11" s="16">
+        <v>13</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="30"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="29"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="12" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="29"/>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="16">
-        <v>11</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="E13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="29"/>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30596,12 +30303,12 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F766DD-5182-4AED-9B74-2EDEA2F82B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26E49B3-E6BA-4D0A-8BAB-6109ED1F0233}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30609,162 +30316,162 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="24"/>
-    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="24"/>
+    <col min="1" max="1" width="14.42578125" style="23"/>
+    <col min="2" max="2" width="3.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="22" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="29"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="28" t="s">
-        <v>60</v>
+      <c r="G5" s="19"/>
+      <c r="H5" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30776,21 +30483,19 @@
         <v>67</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F7" s="16">
-        <v>100</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+        <v>1000</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30802,194 +30507,216 @@
         <v>69</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F8" s="16">
-        <v>100</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F10" s="16">
-        <v>13</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="16">
-        <v>13</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="16">
+        <v>11</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="F14" s="16">
+        <v>11</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31011,318 +30738,320 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="4" topLeftCell="G18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="24"/>
-    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="22" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="24"/>
+    <col min="1" max="1" width="14.42578125" style="23"/>
+    <col min="2" max="2" width="3.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="22" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B8" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="28" t="s">
-        <v>60</v>
+      <c r="G5" s="19"/>
+      <c r="H5" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="G8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31337,411 +31066,396 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26E49B3-E6BA-4D0A-8BAB-6109ED1F0233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9E6DC0-69BB-4EE7-9054-91DB318AAAD1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="24"/>
-    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="22" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="24"/>
+    <col min="1" max="1" width="14.42578125" style="23"/>
+    <col min="2" max="2" width="3.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="22" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="5.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="28" t="s">
-        <v>60</v>
+      <c r="G5" s="19"/>
+      <c r="H5" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16">
-        <v>100</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="16">
         <v>100</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
-        <v>104</v>
+      <c r="H8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
-        <v>107</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="16">
+        <v>11</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="G11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="H12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F13" s="16">
+        <v>11</v>
+      </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="H13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="19"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="30"/>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="16">
-        <v>11</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31756,7 +31470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9E6DC0-69BB-4EE7-9054-91DB318AAAD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3C3CC4-7FBF-4EF0-AA6B-235428D65C63}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31764,384 +31478,418 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="24"/>
-    <col min="2" max="2" width="3.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="22" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="5.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="24"/>
+    <col min="1" max="1" width="14.42578125" style="21"/>
+    <col min="2" max="2" width="3.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="6" max="6" width="5.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="28" t="s">
-        <v>60</v>
+      <c r="G5" s="19"/>
+      <c r="H5" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F7" s="16">
-        <v>100</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
-        <v>108</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F10" s="16">
-        <v>11</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="G11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="H12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="16">
+        <v>55</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="29"/>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16">
         <v>11</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="29"/>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="16">
+        <v>11</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32153,737 +31901,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3C3CC4-7FBF-4EF0-AA6B-235428D65C63}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="22"/>
-    <col min="2" max="2" width="3.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="30"/>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="16">
-        <v>11</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="30"/>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="30"/>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="16">
-        <v>11</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="30"/>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="30"/>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="30"/>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="30"/>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="30"/>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="16">
-        <v>11</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="30"/>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="30"/>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="16">
-        <v>11</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="30"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="16">
-        <v>11</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="30"/>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="30"/>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="30"/>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="30"/>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="30"/>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="30"/>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="30"/>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="30"/>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="30"/>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="30"/>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="30"/>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="30"/>
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="261" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4278393B-B898-4CF8-94DA-55C2CD5D463B}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABFFB7D-614A-46B9-85AD-4D2FA5E31449}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
   <si>
     <t>改定履歴</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>日時の記録に関してデフォルトに現在の日時を設定、ファイル送信のデフォルトを送信許可に変更</t>
+  </si>
+  <si>
+    <t>参加日時を要件「ユーザーが参加した日時が分かること」により近づけるよう物理名を修正</t>
   </si>
   <si>
     <t>users</t>
@@ -468,6 +471,9 @@
   </si>
   <si>
     <t>参加日時</t>
+  </si>
+  <si>
+    <t>user_joined_at</t>
   </si>
   <si>
     <t>posts</t>
@@ -948,7 +954,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1418,10 +1424,18 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="12.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -29930,7 +29944,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -29944,10 +29958,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -29961,7 +29975,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -29977,34 +29991,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75">
@@ -30014,26 +30028,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -30044,20 +30058,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -30070,20 +30084,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -30096,20 +30110,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -30122,13 +30136,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -30146,13 +30160,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -30170,13 +30184,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -30194,13 +30208,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -30209,12 +30223,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -30224,20 +30238,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -30250,20 +30264,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -30315,7 +30329,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -30337,7 +30351,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -30351,10 +30365,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -30368,7 +30382,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -30384,34 +30398,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30421,26 +30435,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -30451,20 +30465,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -30477,13 +30491,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30501,13 +30515,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30516,12 +30530,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -30531,13 +30545,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -30546,12 +30560,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -30561,13 +30575,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -30576,12 +30590,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -30591,20 +30605,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -30617,23 +30631,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
@@ -30645,20 +30659,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -30671,23 +30685,23 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="16">
         <v>11</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="15"/>
@@ -30738,8 +30752,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="G18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30760,7 +30774,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -30774,10 +30788,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -30791,7 +30805,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -30807,34 +30821,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30844,26 +30858,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -30874,23 +30888,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -30902,23 +30916,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -30930,20 +30944,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -31095,7 +31109,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -31109,10 +31123,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -31126,7 +31140,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -31142,34 +31156,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31179,26 +31193,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -31209,20 +31223,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -31235,13 +31249,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -31259,13 +31273,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31274,12 +31288,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31289,20 +31303,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -31315,23 +31329,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="15"/>
@@ -31343,20 +31357,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -31369,23 +31383,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
@@ -31397,23 +31411,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="16">
         <v>11</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="15"/>
@@ -31499,7 +31513,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -31513,10 +31527,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -31530,7 +31544,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -31546,34 +31560,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31583,26 +31597,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -31613,20 +31627,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -31639,23 +31653,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -31667,13 +31681,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="19"/>
@@ -31689,13 +31703,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31704,12 +31718,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31719,13 +31733,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31734,12 +31748,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31749,20 +31763,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -31775,23 +31789,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
@@ -31803,20 +31817,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -31829,23 +31843,23 @@
         <v>10</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="16">
         <v>11</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="15"/>
@@ -31857,23 +31871,23 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="16">
         <v>11</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="15"/>
